--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/CQDGObservationCauseOfDeath</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/CQDGObservationCauseOfDeath</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/cqdg-observation-group</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/cqdg-observation-group</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1112,7 +1112,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/CodeSystem/cause-of-death-vs</t>
+    <t>https://fhir.cqdg.ca/CodeSystem/cause-of-death-vs</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:10:49+00:00</t>
+    <t>2023-05-08T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T15:26:10+00:00</t>
+    <t>2023-05-11T13:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T13:00:33+00:00</t>
+    <t>2023-05-11T21:57:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T21:57:42+00:00</t>
+    <t>2023-05-12T12:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T16:12:28+00:00</t>
+    <t>2023-10-16T18:33:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2073,19 +2077,19 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>38</v>
@@ -2096,10 +2100,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2110,7 +2114,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2119,19 +2123,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2181,13 +2185,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2216,10 +2220,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2230,7 +2234,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2239,16 +2243,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2299,19 +2303,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2334,10 +2338,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2348,7 +2352,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -2360,13 +2364,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2417,13 +2421,13 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
@@ -2441,7 +2445,7 @@
         <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>38</v>
@@ -2452,14 +2456,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2478,16 +2482,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2525,19 +2529,19 @@
         <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2549,7 +2553,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2561,7 +2565,7 @@
         <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>38</v>
@@ -2572,10 +2576,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2586,7 +2590,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2595,19 +2599,19 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2657,19 +2661,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2692,10 +2696,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2706,7 +2710,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -2715,19 +2719,19 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2777,19 +2781,19 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -2812,10 +2816,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2826,7 +2830,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -2835,19 +2839,19 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2897,19 +2901,19 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2932,10 +2936,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2946,7 +2950,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2955,19 +2959,19 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3017,7 +3021,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3029,7 +3033,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3052,10 +3056,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3075,19 +3079,19 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3113,13 +3117,13 @@
         <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>38</v>
@@ -3137,7 +3141,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3149,7 +3153,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -3172,10 +3176,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3186,7 +3190,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3195,19 +3199,19 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3233,13 +3237,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -3257,7 +3261,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3269,7 +3273,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3292,10 +3296,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3306,28 +3310,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3377,19 +3381,19 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3412,10 +3416,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3426,7 +3430,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3438,16 +3442,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3473,13 +3477,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3497,19 +3501,19 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3532,21 +3536,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3558,16 +3562,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3617,19 +3621,19 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -3641,7 +3645,7 @@
         <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>38</v>
@@ -3652,14 +3656,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3678,16 +3682,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3737,7 +3741,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3761,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>38</v>
@@ -3772,14 +3776,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3798,16 +3802,16 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3857,7 +3861,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3869,7 +3873,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3881,7 +3885,7 @@
         <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>38</v>
@@ -3892,14 +3896,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3912,25 +3916,25 @@
         <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3979,7 +3983,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3991,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -4003,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -4014,10 +4018,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4037,20 +4041,20 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -4099,7 +4103,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4111,22 +4115,22 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>38</v>
@@ -4134,14 +4138,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4157,20 +4161,20 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -4219,7 +4223,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -4231,19 +4235,19 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -4254,14 +4258,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4277,19 +4281,19 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4339,7 +4343,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4351,19 +4355,19 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4374,10 +4378,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4385,34 +4389,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4437,13 +4441,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4461,34 +4465,34 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>38</v>
@@ -4496,10 +4500,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4522,19 +4526,19 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4559,13 +4563,13 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
@@ -4583,7 +4587,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4595,7 +4599,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -4607,10 +4611,10 @@
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>38</v>
@@ -4618,21 +4622,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4641,22 +4645,22 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4681,13 +4685,13 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4705,45 +4709,45 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4754,7 +4758,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4763,22 +4767,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4827,34 +4831,34 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>38</v>
@@ -4862,10 +4866,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4885,19 +4889,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4947,7 +4951,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4959,7 +4963,7 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -4968,13 +4972,13 @@
         <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>38</v>
@@ -4982,21 +4986,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -5005,22 +5009,22 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -5069,34 +5073,34 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>38</v>
@@ -5104,21 +5108,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -5127,22 +5131,22 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -5191,34 +5195,34 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>38</v>
@@ -5226,10 +5230,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5240,7 +5244,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -5249,19 +5253,19 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5311,19 +5315,19 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -5332,13 +5336,13 @@
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>38</v>
@@ -5346,10 +5350,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5369,20 +5373,20 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5431,7 +5435,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5443,22 +5447,22 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>38</v>
@@ -5466,10 +5470,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5480,7 +5484,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5489,22 +5493,22 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5541,58 +5545,58 @@
         <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -5602,7 +5606,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5611,22 +5615,22 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5675,45 +5679,45 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5724,7 +5728,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5736,13 +5740,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5793,13 +5797,13 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
@@ -5817,7 +5821,7 @@
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5828,14 +5832,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5854,16 +5858,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5901,19 +5905,19 @@
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5925,7 +5929,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5937,7 +5941,7 @@
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
@@ -5948,10 +5952,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5971,22 +5975,22 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -6035,7 +6039,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6047,7 +6051,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -6056,10 +6060,10 @@
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>38</v>
@@ -6070,10 +6074,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6084,7 +6088,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -6096,13 +6100,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6153,13 +6157,13 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
@@ -6177,7 +6181,7 @@
         <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
@@ -6188,14 +6192,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6214,16 +6218,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6261,19 +6265,19 @@
         <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6285,7 +6289,7 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -6297,7 +6301,7 @@
         <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -6308,10 +6312,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6322,7 +6326,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -6331,22 +6335,22 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6371,11 +6375,11 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6393,19 +6397,19 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6414,10 +6418,10 @@
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6428,10 +6432,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6442,7 +6446,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6451,19 +6455,19 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6513,19 +6517,19 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -6534,10 +6538,10 @@
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6548,10 +6552,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6562,7 +6566,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6571,20 +6575,20 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6633,19 +6637,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6654,10 +6658,10 @@
         <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6668,10 +6672,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6682,7 +6686,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6691,20 +6695,20 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6753,19 +6757,19 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6774,10 +6778,10 @@
         <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6788,10 +6792,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6802,7 +6806,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6811,22 +6815,22 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6875,19 +6879,19 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6896,10 +6900,10 @@
         <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -6910,10 +6914,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6924,7 +6928,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6933,22 +6937,22 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6997,19 +7001,19 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -7018,10 +7022,10 @@
         <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -7032,10 +7036,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7046,7 +7050,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -7058,19 +7062,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -7095,13 +7099,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -7119,19 +7123,19 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -7140,10 +7144,10 @@
         <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -7154,14 +7158,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7180,19 +7184,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7217,13 +7221,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7241,7 +7245,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -7253,33 +7257,33 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7302,19 +7306,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7363,7 +7367,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7375,7 +7379,7 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -7384,10 +7388,10 @@
         <v>38</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7398,10 +7402,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7412,7 +7416,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7424,16 +7428,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7459,13 +7463,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7483,45 +7487,45 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7532,7 +7536,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7544,19 +7548,19 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7581,13 +7585,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7605,19 +7609,19 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7626,10 +7630,10 @@
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -7640,10 +7644,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7654,7 +7658,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7666,16 +7670,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7725,45 +7729,45 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7774,7 +7778,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7786,16 +7790,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7845,45 +7849,45 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7906,19 +7910,19 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7967,7 +7971,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7979,7 +7983,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7988,10 +7992,10 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -8002,10 +8006,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8016,7 +8020,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -8028,13 +8032,13 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8085,13 +8089,13 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
@@ -8109,7 +8113,7 @@
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8120,14 +8124,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8146,16 +8150,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8205,7 +8209,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -8217,7 +8221,7 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -8229,7 +8233,7 @@
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8240,14 +8244,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8260,25 +8264,25 @@
         <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8327,7 +8331,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -8339,7 +8343,7 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -8351,7 +8355,7 @@
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>38</v>
@@ -8362,10 +8366,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8376,7 +8380,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -8388,13 +8392,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8445,19 +8449,19 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -8466,10 +8470,10 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>38</v>
@@ -8480,10 +8484,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8494,7 +8498,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8506,13 +8510,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8563,19 +8567,19 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8584,10 +8588,10 @@
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -8598,10 +8602,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8612,7 +8616,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8624,19 +8628,19 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8661,13 +8665,13 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>38</v>
@@ -8685,31 +8689,31 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>38</v>
@@ -8720,10 +8724,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8746,19 +8750,19 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8783,13 +8787,13 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -8807,7 +8811,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8819,19 +8823,19 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>38</v>
@@ -8842,10 +8846,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8856,7 +8860,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8868,17 +8872,17 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8927,19 +8931,19 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8951,7 +8955,7 @@
         <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -8962,10 +8966,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8976,7 +8980,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8988,13 +8992,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9045,19 +9049,19 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -9066,10 +9070,10 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>
@@ -9080,10 +9084,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9103,19 +9107,19 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9165,7 +9169,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9177,7 +9181,7 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -9186,10 +9190,10 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -9200,10 +9204,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9223,19 +9227,19 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9285,7 +9289,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9297,7 +9301,7 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -9306,10 +9310,10 @@
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -9320,10 +9324,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9343,22 +9347,22 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -9407,7 +9411,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9419,7 +9423,7 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -9428,10 +9432,10 @@
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -9442,10 +9446,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9456,7 +9460,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -9468,13 +9472,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9525,13 +9529,13 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
@@ -9549,7 +9553,7 @@
         <v>38</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>38</v>
@@ -9560,14 +9564,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9586,16 +9590,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9645,7 +9649,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -9657,7 +9661,7 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -9669,7 +9673,7 @@
         <v>38</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>38</v>
@@ -9680,14 +9684,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9700,25 +9704,25 @@
         <v>38</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9767,7 +9771,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9779,7 +9783,7 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -9791,7 +9795,7 @@
         <v>38</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>38</v>
@@ -9802,10 +9806,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9813,10 +9817,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9825,22 +9829,22 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9865,13 +9869,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -9889,34 +9893,34 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>38</v>
@@ -9924,10 +9928,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9938,7 +9942,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9947,22 +9951,22 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
@@ -10011,45 +10015,45 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10060,7 +10064,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -10072,19 +10076,19 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -10109,13 +10113,13 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -10133,19 +10137,19 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -10154,10 +10158,10 @@
         <v>38</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>38</v>
@@ -10168,14 +10172,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10194,19 +10198,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -10231,13 +10235,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -10255,7 +10259,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
@@ -10267,33 +10271,33 @@
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10319,16 +10323,16 @@
         <v>39</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10377,7 +10381,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -10389,7 +10393,7 @@
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -10398,10 +10402,10 @@
         <v>38</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:06:51+00:00</t>
+    <t>2023-11-15T18:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -433,7 +433,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -453,7 +453,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1648,7 +1648,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T18:25:48+00:00</t>
+    <t>2023-11-15T19:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T19:01:06+00:00</t>
+    <t>2023-12-04T14:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T14:59:45+00:00</t>
+    <t>2023-12-07T15:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:05:41+00:00</t>
+    <t>2024-01-17T15:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T15:25:58+00:00</t>
+    <t>2024-01-17T16:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:00:29+00:00</t>
+    <t>2024-01-17T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:27:10+00:00</t>
+    <t>2024-01-17T16:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T15:04:17+00:00</t>
+    <t>2024-12-18T18:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:27:33+00:00</t>
+    <t>2025-05-13T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -836,6 +836,187 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/CodeSystem/cqdg-observation-code</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Cause-of-Death</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -1068,27 +1249,6 @@
     <t>Observation.value[x].coding</t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept.coding.id</t>
   </si>
   <si>
@@ -1107,158 +1267,37 @@
     <t>Observation.value[x].coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
     <t>https://fhir.cqdg.ca/CodeSystem/cause-of-death-vs</t>
   </si>
   <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept.coding.version</t>
   </si>
   <si>
     <t>Observation.value[x].coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept.coding.code</t>
   </si>
   <si>
     <t>Observation.value[x].coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept.coding.display</t>
   </si>
   <si>
     <t>Observation.value[x].coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.value[x].coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept.text</t>
   </si>
   <si>
     <t>Observation.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2064,7 +2103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP71"/>
+  <dimension ref="A1:AP82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2073,17 +2112,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2092,28 +2131,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.21484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5033,23 +5072,19 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -5097,7 +5132,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5109,22 +5144,22 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
@@ -5132,14 +5167,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5155,19 +5190,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5205,19 +5240,19 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>274</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5229,7 +5264,7 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
@@ -5238,13 +5273,13 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5252,21 +5287,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -5278,19 +5313,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5339,13 +5374,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -5354,19 +5389,19 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5374,14 +5409,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5397,23 +5432,19 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5461,7 +5492,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5473,22 +5504,22 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
@@ -5496,21 +5527,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5519,19 +5550,19 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5569,31 +5600,31 @@
         <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
@@ -5602,13 +5633,13 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5616,10 +5647,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5630,7 +5661,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5642,17 +5673,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5662,7 +5695,7 @@
         <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>20</v>
@@ -5701,13 +5734,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -5716,19 +5749,19 @@
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>20</v>
@@ -5736,10 +5769,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5762,20 +5795,18 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>319</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5811,17 +5842,19 @@
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5830,7 +5863,7 @@
         <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>104</v>
@@ -5839,31 +5872,29 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5884,19 +5915,17 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5906,7 +5935,7 @@
         <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>20</v>
@@ -5945,7 +5974,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5954,7 +5983,7 @@
         <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>104</v>
@@ -5963,27 +5992,27 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6003,19 +6032,21 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -6063,7 +6094,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6075,7 +6106,7 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -6084,10 +6115,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6098,21 +6129,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -6121,21 +6152,23 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -6171,31 +6204,31 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -6204,10 +6237,10 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>110</v>
+        <v>315</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6218,10 +6251,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6232,7 +6265,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -6244,19 +6277,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6305,13 +6338,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -6326,10 +6359,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6340,10 +6373,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6363,19 +6396,23 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6423,7 +6460,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>109</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6435,22 +6472,22 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
@@ -6458,14 +6495,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6481,19 +6518,19 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>114</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>115</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>116</v>
+        <v>338</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6531,19 +6568,19 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>120</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6555,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6564,13 +6601,13 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>110</v>
+        <v>339</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6578,14 +6615,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6604,19 +6641,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6641,11 +6678,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6663,7 +6702,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6678,19 +6717,19 @@
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6698,14 +6737,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6724,18 +6763,20 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6783,7 +6824,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6798,19 +6839,19 @@
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6818,10 +6859,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6844,18 +6885,18 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6903,7 +6944,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6924,13 +6965,13 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6938,10 +6979,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6952,7 +6993,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6964,17 +7005,17 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7023,13 +7064,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -7038,19 +7079,19 @@
         <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -7058,10 +7099,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7084,19 +7125,19 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7133,19 +7174,17 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7154,7 +7193,7 @@
         <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>104</v>
@@ -7163,29 +7202,31 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7206,19 +7247,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7267,7 +7308,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7276,7 +7317,7 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>104</v>
@@ -7285,27 +7326,27 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7328,20 +7369,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>403</v>
+        <v>107</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7365,13 +7402,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>407</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7389,7 +7426,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7398,10 +7435,10 @@
         <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -7410,10 +7447,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7424,14 +7461,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>412</v>
+        <v>112</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7450,20 +7487,18 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>413</v>
+        <v>114</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>414</v>
+        <v>115</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7487,31 +7522,31 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>417</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>411</v>
+        <v>120</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7523,33 +7558,33 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>422</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7569,22 +7604,22 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>424</v>
+        <v>146</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>425</v>
+        <v>267</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>426</v>
+        <v>268</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>427</v>
+        <v>269</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7633,7 +7668,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>423</v>
+        <v>271</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7654,10 +7689,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>429</v>
+        <v>272</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>430</v>
+        <v>273</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7668,10 +7703,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7694,17 +7729,15 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>432</v>
+        <v>107</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7729,13 +7762,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>436</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7753,7 +7786,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>431</v>
+        <v>109</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7765,44 +7798,44 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>437</v>
+        <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>438</v>
+        <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>439</v>
+        <v>110</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>440</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7814,20 +7847,18 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>442</v>
+        <v>114</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>443</v>
+        <v>115</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7851,43 +7882,43 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>447</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>441</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7896,10 +7927,10 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>448</v>
+        <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>449</v>
+        <v>110</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7910,10 +7941,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7933,21 +7964,23 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>451</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>452</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>453</v>
+        <v>278</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7971,13 +8004,11 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7995,7 +8026,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>450</v>
+        <v>282</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8013,27 +8044,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>456</v>
+        <v>283</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>457</v>
+        <v>284</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>458</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8053,19 +8084,19 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>460</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>461</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>462</v>
+        <v>287</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>463</v>
+        <v>288</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8115,7 +8146,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>459</v>
+        <v>289</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8133,27 +8164,27 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>464</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>465</v>
+        <v>290</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>466</v>
+        <v>291</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>467</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8164,7 +8195,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -8173,22 +8204,20 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>469</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>470</v>
+        <v>293</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>473</v>
+        <v>295</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8237,19 +8266,19 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>468</v>
+        <v>297</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>474</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8258,10 +8287,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>475</v>
+        <v>298</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>476</v>
+        <v>299</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8272,10 +8301,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8295,19 +8324,21 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8355,7 +8386,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8367,7 +8398,7 @@
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -8376,10 +8407,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8390,21 +8421,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -8413,21 +8444,23 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8475,19 +8508,19 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8496,10 +8529,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>110</v>
+        <v>315</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8510,45 +8543,45 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>481</v>
+        <v>317</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>482</v>
+        <v>318</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8597,19 +8630,19 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>483</v>
+        <v>321</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8618,10 +8651,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8632,10 +8665,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8658,16 +8691,20 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>485</v>
+        <v>241</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8691,13 +8728,13 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>20</v>
+        <v>421</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8715,7 +8752,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8724,7 +8761,7 @@
         <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>488</v>
+        <v>422</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>104</v>
@@ -8736,10 +8773,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>489</v>
+        <v>191</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8750,21 +8787,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -8776,16 +8813,20 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>485</v>
+        <v>241</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8809,13 +8850,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>20</v>
+        <v>430</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>20</v>
+        <v>431</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8833,16 +8874,16 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>488</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>104</v>
@@ -8851,27 +8892,27 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>20</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8882,7 +8923,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8894,19 +8935,19 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>241</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>496</v>
+        <v>438</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>497</v>
+        <v>439</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>498</v>
+        <v>440</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>499</v>
+        <v>441</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8931,13 +8972,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>501</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8955,13 +8996,13 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
@@ -8973,13 +9014,13 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>502</v>
+        <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>503</v>
+        <v>442</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8990,10 +9031,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9004,7 +9045,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -9019,17 +9060,15 @@
         <v>241</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9056,10 +9095,10 @@
         <v>158</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -9077,13 +9116,13 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
@@ -9095,27 +9134,27 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>20</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9138,17 +9177,19 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>512</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9173,13 +9214,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>20</v>
+        <v>459</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9197,7 +9238,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9218,10 +9259,10 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>20</v>
+        <v>461</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9232,10 +9273,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>517</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>517</v>
+        <v>463</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9258,15 +9299,17 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>106</v>
+        <v>464</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9315,7 +9358,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>517</v>
+        <v>463</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9333,27 +9376,27 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>20</v>
+        <v>468</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>20</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9364,7 +9407,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -9373,19 +9416,19 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9435,13 +9478,13 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
@@ -9453,27 +9496,27 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>20</v>
+        <v>477</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>526</v>
+        <v>478</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>527</v>
+        <v>479</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>20</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9493,21 +9536,23 @@
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9555,7 +9600,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9567,7 +9612,7 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>104</v>
+        <v>487</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -9576,10 +9621,10 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9590,10 +9635,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9604,7 +9649,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -9613,23 +9658,19 @@
         <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>469</v>
+        <v>106</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>535</v>
+        <v>107</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -9677,19 +9718,19 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>534</v>
+        <v>109</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -9698,10 +9739,10 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>539</v>
+        <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>540</v>
+        <v>110</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9712,21 +9753,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -9738,15 +9779,17 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9795,19 +9838,19 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
@@ -9830,14 +9873,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>112</v>
+        <v>493</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9850,24 +9893,26 @@
         <v>20</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>114</v>
+        <v>494</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>115</v>
+        <v>495</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="O65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
       </c>
@@ -9915,7 +9960,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>120</v>
+        <v>496</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9939,7 +9984,7 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9950,46 +9995,42 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>113</v>
+        <v>498</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>20</v>
       </c>
@@ -10037,19 +10078,19 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>20</v>
+        <v>501</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
@@ -10058,10 +10099,10 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>20</v>
+        <v>502</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>191</v>
+        <v>503</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10072,10 +10113,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10083,7 +10124,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>92</v>
@@ -10095,23 +10136,19 @@
         <v>20</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>241</v>
+        <v>498</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>20</v>
       </c>
@@ -10135,13 +10172,13 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -10159,16 +10196,16 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>20</v>
+        <v>501</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>104</v>
@@ -10177,16 +10214,16 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>548</v>
+        <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>260</v>
+        <v>502</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>261</v>
+        <v>507</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>20</v>
@@ -10194,10 +10231,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10217,22 +10254,22 @@
         <v>20</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>321</v>
+        <v>510</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>323</v>
+        <v>512</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10257,13 +10294,13 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>20</v>
+        <v>513</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>20</v>
+        <v>514</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10281,7 +10318,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10299,27 +10336,27 @@
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>327</v>
+        <v>516</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>328</v>
+        <v>434</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10330,7 +10367,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -10345,16 +10382,16 @@
         <v>241</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>406</v>
+        <v>521</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10379,13 +10416,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>407</v>
+        <v>522</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>408</v>
+        <v>523</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10403,16 +10440,16 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>104</v>
@@ -10421,13 +10458,13 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>20</v>
+        <v>515</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>191</v>
+        <v>516</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10438,21 +10475,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
@@ -10464,19 +10501,17 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>241</v>
+        <v>525</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>413</v>
+        <v>526</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>416</v>
+        <v>528</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10501,13 +10536,13 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>417</v>
+        <v>20</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -10525,13 +10560,13 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>20</v>
@@ -10543,27 +10578,27 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>421</v>
+        <v>529</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>422</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10574,7 +10609,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -10586,20 +10621,16 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10647,13 +10678,13 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
@@ -10668,15 +10699,1347 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP71" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>20</v>
       </c>
     </row>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>Observation.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -672,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -815,7 +815,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1020,7 +1020,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1051,7 +1051,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1319,7 +1319,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1351,7 +1351,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1407,7 +1407,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1440,7 +1440,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1452,7 +1452,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1560,7 +1560,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1610,7 +1610,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1643,7 +1643,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1680,7 +1680,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1702,7 +1702,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2122,7 +2122,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2137,7 +2137,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.21484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Tags applied to this resource</t>
@@ -3252,10 +3255,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -3492,10 +3495,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3510,13 +3513,13 @@
         <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3542,13 +3545,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -3566,7 +3569,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3601,10 +3604,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3630,13 +3633,13 @@
         <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3686,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3721,10 +3724,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3747,16 +3750,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3782,13 +3785,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3806,7 +3809,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3841,14 +3844,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3867,16 +3870,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3926,7 +3929,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3950,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -3961,14 +3964,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3987,16 +3990,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4046,7 +4049,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4070,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>20</v>
@@ -4081,10 +4084,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4113,7 +4116,7 @@
         <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>116</v>
@@ -4166,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4190,7 +4193,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4201,10 +4204,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4230,16 +4233,16 @@
         <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>116</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4288,7 +4291,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4312,7 +4315,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4323,10 +4326,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4349,17 +4352,17 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4408,7 +4411,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4423,19 +4426,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4443,14 +4446,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4469,17 +4472,17 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4528,7 +4531,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4543,16 +4546,16 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4563,14 +4566,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4589,16 +4592,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4648,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4663,16 +4666,16 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4683,10 +4686,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4709,19 +4712,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4746,13 +4749,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4770,7 +4773,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>92</v>
@@ -4785,19 +4788,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4805,10 +4808,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4831,19 +4834,19 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4868,13 +4871,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4892,7 +4895,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4916,10 +4919,10 @@
         <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4927,14 +4930,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4953,19 +4956,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4990,13 +4993,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -5014,7 +5017,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>92</v>
@@ -5029,30 +5032,30 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5167,10 +5170,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5287,10 +5290,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5316,16 +5319,16 @@
         <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5374,7 +5377,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5395,10 +5398,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5409,10 +5412,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5527,10 +5530,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5647,10 +5650,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5676,16 +5679,16 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5695,7 +5698,7 @@
         <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>20</v>
@@ -5734,7 +5737,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5755,10 +5758,10 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5769,10 +5772,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5798,13 +5801,13 @@
         <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5854,7 +5857,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5875,10 +5878,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5889,10 +5892,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5915,17 +5918,17 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5935,7 +5938,7 @@
         <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>20</v>
@@ -5974,7 +5977,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5995,10 +5998,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -6009,10 +6012,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6038,14 +6041,14 @@
         <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6094,7 +6097,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6115,10 +6118,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6129,10 +6132,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6155,19 +6158,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6216,7 +6219,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6237,10 +6240,10 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6251,10 +6254,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6280,16 +6283,16 @@
         <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6338,7 +6341,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6359,10 +6362,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6373,10 +6376,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6399,19 +6402,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6460,7 +6463,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6475,19 +6478,19 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
@@ -6495,10 +6498,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6521,16 +6524,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6580,7 +6583,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6601,13 +6604,13 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6615,14 +6618,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6641,19 +6644,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6702,7 +6705,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6717,19 +6720,19 @@
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6737,14 +6740,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6763,19 +6766,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6824,7 +6827,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6839,19 +6842,19 @@
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6859,10 +6862,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6888,13 +6891,13 @@
         <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6944,7 +6947,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6965,13 +6968,13 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6979,10 +6982,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7005,17 +7008,17 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7064,7 +7067,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7079,19 +7082,19 @@
         <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -7099,10 +7102,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7125,19 +7128,19 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7174,7 +7177,7 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
@@ -7184,7 +7187,7 @@
         <v>119</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7193,7 +7196,7 @@
         <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>104</v>
@@ -7202,30 +7205,30 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>20</v>
@@ -7247,19 +7250,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7308,7 +7311,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7317,7 +7320,7 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>104</v>
@@ -7326,27 +7329,27 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7461,10 +7464,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7581,10 +7584,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7610,16 +7613,16 @@
         <v>146</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7668,7 +7671,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7689,10 +7692,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7703,10 +7706,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7821,10 +7824,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7941,10 +7944,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7970,16 +7973,16 @@
         <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -8004,11 +8007,11 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -8026,7 +8029,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8047,10 +8050,10 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -8061,10 +8064,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8090,13 +8093,13 @@
         <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8146,7 +8149,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8167,10 +8170,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8181,10 +8184,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8207,17 +8210,17 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8266,7 +8269,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8287,10 +8290,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8301,10 +8304,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8330,14 +8333,14 @@
         <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8386,7 +8389,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8407,10 +8410,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8421,10 +8424,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8447,19 +8450,19 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8508,7 +8511,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8529,10 +8532,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8543,10 +8546,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8572,16 +8575,16 @@
         <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8630,7 +8633,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8651,10 +8654,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8665,10 +8668,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8691,19 +8694,19 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8731,10 +8734,10 @@
         <v>150</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8752,7 +8755,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8761,7 +8764,7 @@
         <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>104</v>
@@ -8773,10 +8776,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8787,14 +8790,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8813,19 +8816,19 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8853,10 +8856,10 @@
         <v>150</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8874,7 +8877,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8892,27 +8895,27 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8935,19 +8938,19 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8996,7 +8999,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9017,10 +9020,10 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -9031,10 +9034,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9057,16 +9060,16 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9092,13 +9095,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -9116,7 +9119,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9134,27 +9137,27 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9177,19 +9180,19 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9214,13 +9217,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9238,7 +9241,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9259,10 +9262,10 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9273,10 +9276,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9299,16 +9302,16 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9358,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9376,27 +9379,27 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9419,16 +9422,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9478,7 +9481,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9496,27 +9499,27 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9539,19 +9542,19 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9600,7 +9603,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9612,7 +9615,7 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -9621,10 +9624,10 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9635,10 +9638,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9753,10 +9756,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9873,14 +9876,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9902,16 +9905,16 @@
         <v>113</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>116</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9960,7 +9963,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9984,7 +9987,7 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9995,10 +9998,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10021,13 +10024,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10078,7 +10081,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10087,7 +10090,7 @@
         <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>104</v>
@@ -10099,10 +10102,10 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10113,10 +10116,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10139,13 +10142,13 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10196,7 +10199,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10205,7 +10208,7 @@
         <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>104</v>
@@ -10217,10 +10220,10 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -10231,10 +10234,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10257,19 +10260,19 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10294,13 +10297,13 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10318,7 +10321,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10336,13 +10339,13 @@
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10353,10 +10356,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10379,19 +10382,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10416,13 +10419,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10440,7 +10443,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10458,13 +10461,13 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10475,10 +10478,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10501,17 +10504,17 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10560,7 +10563,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10584,7 +10587,7 @@
         <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
@@ -10595,10 +10598,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10624,10 +10627,10 @@
         <v>106</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10678,7 +10681,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10699,10 +10702,10 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
@@ -10713,10 +10716,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10739,16 +10742,16 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10798,7 +10801,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10819,10 +10822,10 @@
         <v>20</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>20</v>
@@ -10833,10 +10836,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10859,16 +10862,16 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10918,7 +10921,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10939,10 +10942,10 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -10953,10 +10956,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10979,19 +10982,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -11040,7 +11043,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11061,10 +11064,10 @@
         <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
@@ -11075,10 +11078,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11193,10 +11196,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11313,14 +11316,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11342,16 +11345,16 @@
         <v>113</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>116</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11400,7 +11403,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11424,7 +11427,7 @@
         <v>20</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11435,10 +11438,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11461,19 +11464,19 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11498,13 +11501,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11522,7 +11525,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>92</v>
@@ -11540,16 +11543,16 @@
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>20</v>
@@ -11557,10 +11560,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11583,19 +11586,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11644,7 +11647,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11662,27 +11665,27 @@
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11705,19 +11708,19 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11745,10 +11748,10 @@
         <v>150</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -11766,7 +11769,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11775,7 +11778,7 @@
         <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>104</v>
@@ -11787,10 +11790,10 @@
         <v>20</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -11801,14 +11804,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11827,19 +11830,19 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>20</v>
@@ -11867,10 +11870,10 @@
         <v>150</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -11888,7 +11891,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11906,27 +11909,27 @@
         <v>20</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11952,16 +11955,16 @@
         <v>82</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -12010,7 +12013,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12031,10 +12034,10 @@
         <v>20</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
+++ b/docs/StructureDefinition-CQDGObservationCauseOfDeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
